--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-10_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_04-10_beg.xlsx
@@ -1056,7 +1056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Frostleaf"]   "Wherever there is blood..."
+    <t xml:space="preserve">[name="Frostleaf"]   'Wherever there is blood...'
 </t>
   </si>
   <si>
@@ -1104,7 +1104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]   "...Your mind can hide nothing from me."
+    <t xml:space="preserve">[name="Amiya"]   '...Your mind can hide nothing from me.'
 </t>
   </si>
   <si>
@@ -1260,11 +1260,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]   "Sleep, my children. Sleep.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]   Hedgehog dolls and teddy bears...”......
+    <t xml:space="preserve">[name="FrostNova"]   'Sleep, my children. Sleep.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]   Hedgehog dolls and teddy bears...'......
 </t>
   </si>
   <si>
@@ -1276,11 +1276,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]   "Sink quietly into black...♪
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="FrostNova"]   ...My broken puppets and dolls♬”
+    <t xml:space="preserve">[name="FrostNova"]   'Sink quietly into black...♪
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]   ...My broken puppets and dolls♬'
 </t>
   </si>
   <si>
